--- a/Column descriptions.xlsx
+++ b/Column descriptions.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hsk/MSDS/dataviz/data-visualization-course-assignment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milto\Documents\KU Leuven\Data Visualization\data-visualization-course-assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AC0C1F-A5E7-1C47-A624-C0CBC7A6F2EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708F0522-2129-4626-A96B-C2F987051CAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{42845C4C-90C6-FE4D-9D92-25FCC3B90867}"/>
+    <workbookView xWindow="28680" yWindow="60" windowWidth="29040" windowHeight="15990" xr2:uid="{42845C4C-90C6-FE4D-9D92-25FCC3B90867}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="129">
   <si>
     <t>Column Name</t>
   </si>
@@ -322,6 +322,105 @@
   </si>
   <si>
     <t>scale description</t>
+  </si>
+  <si>
+    <t>aesfdrk</t>
+  </si>
+  <si>
+    <t>cntry</t>
+  </si>
+  <si>
+    <t>crmvct</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>hlthhmp</t>
+  </si>
+  <si>
+    <t>sclact</t>
+  </si>
+  <si>
+    <t>sclmeet</t>
+  </si>
+  <si>
+    <t>trstep</t>
+  </si>
+  <si>
+    <t>trstlgl</t>
+  </si>
+  <si>
+    <t>trstplc</t>
+  </si>
+  <si>
+    <t>trstplt</t>
+  </si>
+  <si>
+    <t>trstprl</t>
+  </si>
+  <si>
+    <t>trstprt</t>
+  </si>
+  <si>
+    <t>trstun</t>
+  </si>
+  <si>
+    <t>lchshcp</t>
+  </si>
+  <si>
+    <t>Little chance to show how capable I am</t>
+  </si>
+  <si>
+    <t>Feeling of safety of walking alone in local area after dark</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Respondent or household member victim of burglary/assault last 5 years</t>
+  </si>
+  <si>
+    <t>Subjective general health</t>
+  </si>
+  <si>
+    <t>Hampered in daily activities by illness/disability/infirmity/mental problem</t>
+  </si>
+  <si>
+    <t>Take part in social activities compared to others of same age</t>
+  </si>
+  <si>
+    <t>How often socially meet with friends, relatives or colleagues</t>
+  </si>
+  <si>
+    <t>Trust in the European Parliament</t>
+  </si>
+  <si>
+    <t>Trust in the legal system</t>
+  </si>
+  <si>
+    <t>Trust in the police</t>
+  </si>
+  <si>
+    <t>Trust in politicians</t>
+  </si>
+  <si>
+    <t>Trust in country's parliament</t>
+  </si>
+  <si>
+    <t>Trust in political parties</t>
+  </si>
+  <si>
+    <t>Trust in the United Nations</t>
+  </si>
+  <si>
+    <t>No scale</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>1-2-3-</t>
   </si>
 </sst>
 </file>
@@ -370,7 +469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -379,6 +478,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -399,7 +501,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -695,21 +797,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4349FD81-DAA6-3E4B-9980-066E973EDDDA}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="194" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -723,7 +825,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -737,7 +839,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -751,7 +853,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -765,7 +867,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -779,7 +881,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -793,7 +895,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -807,7 +909,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -821,7 +923,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -835,7 +937,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -849,7 +951,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -863,7 +965,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -877,7 +979,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -891,7 +993,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -905,7 +1007,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -919,7 +1021,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -933,7 +1035,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -947,7 +1049,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -961,7 +1063,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -975,7 +1077,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -989,7 +1091,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -1003,7 +1105,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -1017,7 +1119,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -1031,7 +1133,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -1045,7 +1147,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -1059,7 +1161,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -1073,7 +1175,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -1087,7 +1189,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -1101,7 +1203,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -1115,7 +1217,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>71</v>
       </c>
@@ -1129,7 +1231,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>74</v>
       </c>
@@ -1143,7 +1245,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>78</v>
       </c>
@@ -1157,7 +1259,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>80</v>
       </c>
@@ -1171,7 +1273,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>84</v>
       </c>
@@ -1185,7 +1287,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>88</v>
       </c>
@@ -1199,7 +1301,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>91</v>
       </c>
@@ -1211,6 +1313,171 @@
       </c>
       <c r="D36" s="3" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Column descriptions.xlsx
+++ b/Column descriptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milto\Documents\KU Leuven\Data Visualization\data-visualization-course-assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708F0522-2129-4626-A96B-C2F987051CAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3168BD2-05AD-4D87-A777-792290598761}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="60" windowWidth="29040" windowHeight="15990" xr2:uid="{42845C4C-90C6-FE4D-9D92-25FCC3B90867}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="128">
   <si>
     <t>Column Name</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>1 Agree 7 Refusal</t>
-  </si>
-  <si>
-    <t>lshshcp</t>
   </si>
   <si>
     <t>little chance to show how capable I am</t>
@@ -800,7 +797,7 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -816,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -833,10 +830,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -847,10 +844,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -864,7 +861,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -878,7 +875,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -892,7 +889,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -906,7 +903,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -920,7 +917,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -934,7 +931,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -953,10 +950,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" t="s">
         <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>23</v>
@@ -967,10 +964,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
         <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>23</v>
@@ -981,212 +978,212 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
         <v>36</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" t="s">
         <v>38</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
         <v>41</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
         <v>42</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
         <v>44</v>
       </c>
-      <c r="B18" t="s">
-        <v>45</v>
-      </c>
       <c r="C18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
         <v>46</v>
       </c>
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
       <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
         <v>38</v>
-      </c>
-      <c r="D19" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
         <v>48</v>
       </c>
-      <c r="B20" t="s">
-        <v>49</v>
-      </c>
       <c r="C20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
         <v>50</v>
       </c>
-      <c r="B21" t="s">
-        <v>51</v>
-      </c>
       <c r="C21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
         <v>52</v>
       </c>
-      <c r="B22" t="s">
-        <v>53</v>
-      </c>
       <c r="C22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
         <v>54</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
         <v>57</v>
-      </c>
-      <c r="B24" t="s">
-        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
         <v>60</v>
-      </c>
-      <c r="B25" t="s">
-        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
         <v>62</v>
-      </c>
-      <c r="B26" t="s">
-        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" t="s">
         <v>64</v>
-      </c>
-      <c r="B27" t="s">
-        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1194,13 +1191,13 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
         <v>67</v>
-      </c>
-      <c r="C28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1208,196 +1205,196 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" t="s">
         <v>69</v>
-      </c>
-      <c r="C29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="C30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="C32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="D33" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="C35" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" t="s">
         <v>110</v>
       </c>
-      <c r="B37" t="s">
-        <v>111</v>
-      </c>
       <c r="C37" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>23</v>
@@ -1405,79 +1402,79 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Column descriptions.xlsx
+++ b/Column descriptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milto\Documents\KU Leuven\Data Visualization\data-visualization-course-assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3168BD2-05AD-4D87-A777-792290598761}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC49C2CD-4118-4AED-83C5-308F547313D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="60" windowWidth="29040" windowHeight="15990" xr2:uid="{42845C4C-90C6-FE4D-9D92-25FCC3B90867}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="132">
   <si>
     <t>Column Name</t>
   </si>
@@ -418,13 +418,25 @@
   </si>
   <si>
     <t>1-2-3-</t>
+  </si>
+  <si>
+    <t>uempla</t>
+  </si>
+  <si>
+    <t>Doing last 7 days: unemployed, actively looking for job</t>
+  </si>
+  <si>
+    <t>uempli</t>
+  </si>
+  <si>
+    <t>Doing last 7 days: unemployed, not actively looking for job</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -441,6 +453,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -466,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -480,6 +500,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -794,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4349FD81-DAA6-3E4B-9980-066E973EDDDA}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1477,6 +1498,28 @@
         <v>30</v>
       </c>
     </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>130</v>
+      </c>
+      <c r="B53" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
